--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
   </si>
   <si>
     <t>Issue</t>
@@ -177,7 +180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -544,6 +547,17 @@
       </c>
       <c r="C33" t="n" s="0">
         <v>95.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>87.0</v>
       </c>
     </row>
   </sheetData>
@@ -561,13 +575,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -585,13 +599,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-08</t>
+  </si>
+  <si>
+    <t>2025-11-09</t>
   </si>
   <si>
     <t>Issue</t>
@@ -180,7 +186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -558,6 +564,28 @@
       </c>
       <c r="C34" t="n" s="0">
         <v>87.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>82.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>76.0</v>
       </c>
     </row>
   </sheetData>
@@ -575,13 +603,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -599,13 +627,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>2025-11-09</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
   </si>
   <si>
     <t>Issue</t>
@@ -186,7 +192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -586,6 +592,28 @@
       </c>
       <c r="C36" t="n" s="0">
         <v>76.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>54.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>47.0</v>
       </c>
     </row>
   </sheetData>
@@ -603,13 +631,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -627,13 +655,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
   </si>
   <si>
     <t>Issue</t>
@@ -192,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -614,6 +617,17 @@
       </c>
       <c r="C38" t="n" s="0">
         <v>47.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>43.0</v>
       </c>
     </row>
   </sheetData>
@@ -631,13 +645,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -655,13 +669,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
   </si>
   <si>
     <t>Issue</t>
@@ -195,7 +201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -628,6 +634,28 @@
       </c>
       <c r="C39" t="n" s="0">
         <v>43.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B41" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>38.0</v>
       </c>
     </row>
   </sheetData>
@@ -645,13 +673,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -669,13 +697,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
   </si>
   <si>
     <t>Issue</t>
@@ -201,7 +204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -656,6 +659,17 @@
       </c>
       <c r="C41" t="n" s="0">
         <v>38.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>35.0</v>
       </c>
     </row>
   </sheetData>
@@ -673,13 +687,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -697,13 +711,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
   </si>
   <si>
     <t>Issue</t>
@@ -204,7 +207,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -670,6 +673,17 @@
       </c>
       <c r="C42" t="n" s="0">
         <v>35.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B43" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>31.0</v>
       </c>
     </row>
   </sheetData>
@@ -687,13 +701,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -711,13 +725,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
   </si>
   <si>
     <t>Issue</t>
@@ -207,7 +210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -684,6 +687,17 @@
       </c>
       <c r="C43" t="n" s="0">
         <v>31.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B44" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>29.0</v>
       </c>
     </row>
   </sheetData>
@@ -701,13 +715,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -725,13 +739,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
   </si>
   <si>
     <t>Issue</t>
@@ -210,7 +219,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -698,6 +707,39 @@
       </c>
       <c r="C44" t="n" s="0">
         <v>29.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B45" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B46" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B47" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -715,13 +757,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -739,13 +781,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
   </si>
   <si>
     <t>Issue</t>
@@ -219,7 +222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -740,6 +743,17 @@
       </c>
       <c r="C47" t="n" s="0">
         <v>25.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B48" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>
@@ -757,13 +771,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -781,13 +795,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-22</t>
+  </si>
+  <si>
+    <t>2025-11-23</t>
   </si>
   <si>
     <t>Issue</t>
@@ -222,7 +228,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -754,6 +760,28 @@
       </c>
       <c r="C48" t="n" s="0">
         <v>26.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B50" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C50" t="n" s="0">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -771,13 +799,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -795,13 +823,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>2025-11-23</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
   </si>
   <si>
     <t>Issue</t>
@@ -228,7 +234,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -782,6 +788,28 @@
       </c>
       <c r="C50" t="n" s="0">
         <v>25.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B51" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B52" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C52" t="n" s="0">
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>
@@ -799,13 +827,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -823,13 +851,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -176,6 +176,21 @@
   </si>
   <si>
     <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
+    <t>2025-11-27</t>
+  </si>
+  <si>
+    <t>2025-11-28</t>
+  </si>
+  <si>
+    <t>2025-11-29</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
   </si>
   <si>
     <t>Issue</t>
@@ -234,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -809,6 +824,61 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B53" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C53" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B54" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C54" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B55" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C55" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B56" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C56" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C57" t="n" s="0">
         <v>27.0</v>
       </c>
     </row>
@@ -827,13 +897,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -851,13 +921,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-01</t>
   </si>
   <si>
     <t>Issue</t>
@@ -249,7 +252,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -879,6 +882,17 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B58" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C58" t="n" s="0">
         <v>27.0</v>
       </c>
     </row>
@@ -897,13 +911,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -921,13 +935,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>2025-12-01</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
   </si>
   <si>
     <t>Issue</t>
@@ -252,7 +255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -893,6 +896,17 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B59" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C59" t="n" s="0">
         <v>27.0</v>
       </c>
     </row>
@@ -911,13 +925,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -935,13 +949,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
   </si>
   <si>
     <t>Issue</t>
@@ -255,7 +264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -908,6 +917,39 @@
       </c>
       <c r="C59" t="n" s="0">
         <v>27.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B60" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C60" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B61" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C61" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B62" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C62" t="n" s="0">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -925,13 +967,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -949,13 +991,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>2025-12-06</t>
+  </si>
+  <si>
+    <t>2025-12-07</t>
   </si>
   <si>
     <t>Issue</t>
@@ -264,7 +270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -950,6 +956,28 @@
       </c>
       <c r="C62" t="n" s="0">
         <v>25.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B63" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C63" t="n" s="0">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B64" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C64" t="n" s="0">
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>
@@ -967,13 +995,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -991,13 +1019,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>2025-12-07</t>
+  </si>
+  <si>
+    <t>2025-12-08</t>
+  </si>
+  <si>
+    <t>2025-12-09</t>
   </si>
   <si>
     <t>Issue</t>
@@ -270,7 +276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -978,6 +984,28 @@
       </c>
       <c r="C64" t="n" s="0">
         <v>26.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B65" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C65" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B66" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C66" t="n" s="0">
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>
@@ -995,13 +1023,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1019,13 +1047,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>2025-12-09</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>2025-12-11</t>
   </si>
   <si>
     <t>Issue</t>
@@ -276,7 +282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1006,6 +1012,28 @@
       </c>
       <c r="C66" t="n" s="0">
         <v>27.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B67" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C67" t="n" s="0">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B68" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C68" t="n" s="0">
+        <v>29.0</v>
       </c>
     </row>
   </sheetData>
@@ -1023,13 +1051,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1047,13 +1075,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>2025-12-12</t>
   </si>
   <si>
     <t>Issue</t>
@@ -282,7 +285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1034,6 +1037,17 @@
       </c>
       <c r="C68" t="n" s="0">
         <v>29.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B69" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C69" t="n" s="0">
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>
@@ -1051,13 +1065,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1075,13 +1089,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>2025-12-12</t>
+  </si>
+  <si>
+    <t>2025-12-13</t>
+  </si>
+  <si>
+    <t>2025-12-14</t>
   </si>
   <si>
     <t>Issue</t>
@@ -285,7 +291,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1048,6 +1054,28 @@
       </c>
       <c r="C69" t="n" s="0">
         <v>30.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B70" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C70" t="n" s="0">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B71" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C71" t="n" s="0">
+        <v>31.0</v>
       </c>
     </row>
   </sheetData>
@@ -1065,13 +1093,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1117,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>2025-12-14</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>2025-12-16</t>
   </si>
   <si>
     <t>Issue</t>
@@ -291,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1076,6 +1082,28 @@
       </c>
       <c r="C71" t="n" s="0">
         <v>31.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B72" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C72" t="n" s="0">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B73" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C73" t="n" s="0">
+        <v>32.0</v>
       </c>
     </row>
   </sheetData>
@@ -1093,13 +1121,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1117,13 +1145,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>2025-12-16</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
   </si>
   <si>
     <t>Issue</t>
@@ -297,7 +300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1104,6 +1107,17 @@
       </c>
       <c r="C73" t="n" s="0">
         <v>32.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B74" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C74" t="n" s="0">
+        <v>31.0</v>
       </c>
     </row>
   </sheetData>
@@ -1121,13 +1135,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1145,13 +1159,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>2025-12-19</t>
   </si>
   <si>
     <t>Issue</t>
@@ -300,7 +306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1118,6 +1124,28 @@
       </c>
       <c r="C74" t="n" s="0">
         <v>31.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B75" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C75" t="n" s="0">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B76" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C76" t="n" s="0">
+        <v>32.0</v>
       </c>
     </row>
   </sheetData>
@@ -1135,13 +1163,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1159,13 +1187,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -248,6 +248,12 @@
   </si>
   <si>
     <t>2025-12-19</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>2025-12-21</t>
   </si>
   <si>
     <t>Issue</t>
@@ -306,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1145,6 +1151,28 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B77" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C77" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B78" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C78" t="n" s="0">
         <v>32.0</v>
       </c>
     </row>
@@ -1163,13 +1191,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1187,13 +1215,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>2025-12-21</t>
+  </si>
+  <si>
+    <t>2025-12-22</t>
   </si>
   <si>
     <t>Issue</t>
@@ -312,7 +315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1173,6 +1176,17 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B79" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C79" t="n" s="0">
         <v>32.0</v>
       </c>
     </row>
@@ -1191,13 +1205,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1229,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>2025-12-22</t>
+  </si>
+  <si>
+    <t>2025-12-23</t>
   </si>
   <si>
     <t>Issue</t>
@@ -315,7 +318,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1188,6 +1191,17 @@
       </c>
       <c r="C79" t="n" s="0">
         <v>32.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B80" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C80" t="n" s="0">
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>
@@ -1205,13 +1219,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1229,13 +1243,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>2025-12-23</t>
+  </si>
+  <si>
+    <t>2025-12-24</t>
   </si>
   <si>
     <t>Issue</t>
@@ -318,7 +321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1202,6 +1205,17 @@
       </c>
       <c r="C80" t="n" s="0">
         <v>30.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B81" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C81" t="n" s="0">
+        <v>31.0</v>
       </c>
     </row>
   </sheetData>
@@ -1219,13 +1233,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1243,13 +1257,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>2025-12-24</t>
+  </si>
+  <si>
+    <t>2025-12-25</t>
   </si>
   <si>
     <t>Issue</t>
@@ -321,7 +324,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1216,6 +1219,17 @@
       </c>
       <c r="C81" t="n" s="0">
         <v>31.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B82" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C82" t="n" s="0">
+        <v>32.0</v>
       </c>
     </row>
   </sheetData>
@@ -1233,13 +1247,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1257,13 +1271,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>2025-12-25</t>
+  </si>
+  <si>
+    <t>2025-12-26</t>
   </si>
   <si>
     <t>Issue</t>
@@ -324,7 +327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1229,6 +1232,17 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B83" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C83" t="n" s="0">
         <v>32.0</v>
       </c>
     </row>
@@ -1247,13 +1261,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1271,13 +1285,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>Date</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>2025-12-26</t>
+  </si>
+  <si>
+    <t>2025-12-27</t>
   </si>
   <si>
     <t>Issue</t>
@@ -327,7 +330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1244,6 +1247,17 @@
       </c>
       <c r="C83" t="n" s="0">
         <v>32.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B84" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C84" t="n" s="0">
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>
@@ -1261,13 +1275,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1285,13 +1299,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>2025-12-27</t>
+  </si>
+  <si>
+    <t>2025-12-28</t>
   </si>
   <si>
     <t>Issue</t>
@@ -330,7 +333,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1257,6 +1260,17 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B85" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C85" t="n" s="0">
         <v>28.0</v>
       </c>
     </row>
@@ -1275,13 +1289,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1299,13 +1313,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>2025-12-28</t>
+  </si>
+  <si>
+    <t>2025-12-29</t>
   </si>
   <si>
     <t>Issue</t>
@@ -333,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1271,6 +1274,17 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B86" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C86" t="n" s="0">
         <v>28.0</v>
       </c>
     </row>
@@ -1289,13 +1303,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1313,13 +1327,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>2025-12-29</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
   </si>
   <si>
     <t>Issue</t>
@@ -336,7 +339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1285,6 +1288,17 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B87" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C87" t="n" s="0">
         <v>28.0</v>
       </c>
     </row>
@@ -1303,13 +1317,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1327,13 +1341,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
   </si>
   <si>
     <t>Issue</t>
@@ -339,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1300,6 +1306,28 @@
       </c>
       <c r="C87" t="n" s="0">
         <v>28.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>29.0</v>
       </c>
     </row>
   </sheetData>
@@ -1317,13 +1345,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1341,13 +1369,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
   </si>
   <si>
     <t>Issue</t>
@@ -345,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -1328,6 +1331,17 @@
       </c>
       <c r="C89" t="n" s="0">
         <v>29.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>
@@ -1345,13 +1359,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1369,13 +1383,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-06</t>
-  </si>
-  <si>
     <t>2025-10-07</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2026-01-03</t>
   </si>
   <si>
     <t>Issue</t>
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="17">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="37">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="39">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="40">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="41">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="42">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="43">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="44">
@@ -835,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="47">
@@ -868,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="48">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="50">
@@ -912,7 +912,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="52">
@@ -1000,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="60">
@@ -1011,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="61">
@@ -1044,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="64">
@@ -1066,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="66">
@@ -1077,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="67">
@@ -1099,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="69">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="71">
@@ -1143,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="74">
@@ -1176,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="76">
@@ -1220,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="80">
@@ -1231,7 +1231,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="82">
@@ -1264,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="84">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="88">
@@ -1319,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="89">
@@ -1330,7 +1330,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="90">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-07</t>
-  </si>
-  <si>
     <t>2025-10-08</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-03</t>
+  </si>
+  <si>
+    <t>2026-01-04</t>
   </si>
   <si>
     <t>Issue</t>
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="16">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="37">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="39">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="40">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="41">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="42">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="43">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="46">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="47">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="49">
@@ -901,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="51">
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="59">
@@ -1000,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="60">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="63">
@@ -1055,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="65">
@@ -1066,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="66">
@@ -1088,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="68">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="72">
@@ -1143,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="73">
@@ -1165,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="75">
@@ -1209,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="79">
@@ -1220,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="80">
@@ -1231,7 +1231,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="81">
@@ -1253,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="83">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="87">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="88">
@@ -1319,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="89">
@@ -1341,7 +1341,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-08</t>
-  </si>
-  <si>
     <t>2025-10-09</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-04</t>
+  </si>
+  <si>
+    <t>2026-01-05</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="15">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="37">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="39">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="40">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="41">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="42">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
@@ -835,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="45">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="46">
@@ -868,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="48">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="50">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="58">
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="62">
@@ -1044,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="64">
@@ -1055,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="65">
@@ -1077,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="67">
@@ -1099,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="69">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="71">
@@ -1132,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="72">
@@ -1154,7 +1154,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="74">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="78">
@@ -1209,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="79">
@@ -1220,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="80">
@@ -1242,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="82">
@@ -1286,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="86">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="87">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="88">
@@ -1330,7 +1330,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="90">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-09</t>
-  </si>
-  <si>
     <t>2025-10-10</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-05</t>
+  </si>
+  <si>
+    <t>2026-01-06</t>
   </si>
   <si>
     <t>Issue</t>
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="14">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="37">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="39">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="40">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="41">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="44">
@@ -835,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="47">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="49">
@@ -967,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="57">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="58">
@@ -1011,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="61">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="63">
@@ -1044,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="64">
@@ -1066,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="66">
@@ -1088,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="68">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="70">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="71">
@@ -1143,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="73">
@@ -1187,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="77">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="78">
@@ -1209,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="79">
@@ -1231,7 +1231,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="81">
@@ -1275,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="85">
@@ -1286,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="86">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="87">
@@ -1319,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="89">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-10</t>
-  </si>
-  <si>
     <t>2025-10-11</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-06</t>
+  </si>
+  <si>
+    <t>2026-01-07</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="13">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="37">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="39">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="40">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="41">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="43">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="46">
@@ -868,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="48">
@@ -956,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="56">
@@ -967,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="57">
@@ -1000,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="60">
@@ -1022,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="62">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="63">
@@ -1055,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="65">
@@ -1077,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="67">
@@ -1099,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="69">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="72">
@@ -1176,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="76">
@@ -1187,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="77">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="78">
@@ -1220,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="80">
@@ -1264,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="84">
@@ -1275,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="85">
@@ -1286,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="86">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="88">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-11</t>
-  </si>
-  <si>
     <t>2025-10-12</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-07</t>
+  </si>
+  <si>
+    <t>2026-01-08</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="12">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="37">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="39">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="40">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="42">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
@@ -835,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="45">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="47">
@@ -945,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="55">
@@ -956,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="56">
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="59">
@@ -1011,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="61">
@@ -1022,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="62">
@@ -1044,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="64">
@@ -1066,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="66">
@@ -1088,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="68">
@@ -1099,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="69">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="71">
@@ -1165,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="75">
@@ -1176,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="76">
@@ -1187,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="77">
@@ -1209,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="79">
@@ -1253,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="83">
@@ -1264,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="84">
@@ -1275,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="85">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="87">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-12</t>
-  </si>
-  <si>
     <t>2025-10-13</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-08</t>
+  </si>
+  <si>
+    <t>2026-01-09</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>26.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="11">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="37">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="41">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="44">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="46">
@@ -934,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="54">
@@ -945,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="55">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="58">
@@ -1000,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="60">
@@ -1011,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="61">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="63">
@@ -1055,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="65">
@@ -1077,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="68">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="70">
@@ -1154,7 +1154,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="74">
@@ -1165,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="75">
@@ -1176,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="76">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="78">
@@ -1242,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="82">
@@ -1253,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="83">
@@ -1264,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="84">
@@ -1286,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="86">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-13</t>
-  </si>
-  <si>
     <t>2025-10-14</t>
   </si>
   <si>
@@ -290,6 +287,12 @@
   </si>
   <si>
     <t>2026-01-09</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-11</t>
   </si>
   <si>
     <t>Issue</t>
@@ -348,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -373,7 +376,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>34.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +387,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +398,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +409,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +420,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +431,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +442,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +453,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="10">
@@ -472,7 +475,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +486,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +497,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +508,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +519,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +530,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +541,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +552,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +563,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +574,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +585,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +596,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +607,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +618,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +629,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +640,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +651,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +662,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +673,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +684,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +695,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +706,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +717,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +728,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +739,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +750,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="37">
@@ -758,7 +761,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -780,7 +783,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="40">
@@ -791,7 +794,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="41">
@@ -813,7 +816,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="43">
@@ -835,7 +838,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="45">
@@ -923,7 +926,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="53">
@@ -934,7 +937,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="54">
@@ -967,7 +970,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="57">
@@ -989,7 +992,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="59">
@@ -1000,7 +1003,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="60">
@@ -1022,7 +1025,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="62">
@@ -1044,7 +1047,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="64">
@@ -1066,7 +1069,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="66">
@@ -1077,7 +1080,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="67">
@@ -1099,7 +1102,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="69">
@@ -1143,7 +1146,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1157,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="74">
@@ -1165,7 +1168,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="75">
@@ -1187,7 +1190,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="77">
@@ -1231,7 +1234,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1245,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="82">
@@ -1253,7 +1256,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="83">
@@ -1275,7 +1278,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="85">
@@ -1341,7 +1344,18 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>
@@ -1359,13 +1373,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1383,13 +1397,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>2025-10-14</t>
   </si>
   <si>
     <t>2025-10-15</t>
@@ -351,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -376,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="4">
@@ -398,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="5">
@@ -409,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="6">
@@ -420,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="7">
@@ -431,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="8">
@@ -442,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="9">
@@ -464,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="12">
@@ -486,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="13">
@@ -497,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="14">
@@ -508,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="15">
@@ -519,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="16">
@@ -530,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="17">
@@ -541,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="18">
@@ -552,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="19">
@@ -563,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="20">
@@ -574,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="21">
@@ -585,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="22">
@@ -596,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="23">
@@ -607,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="24">
@@ -618,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="27">
@@ -651,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="29">
@@ -673,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="30">
@@ -684,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="31">
@@ -695,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="32">
@@ -706,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="33">
@@ -717,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="34">
@@ -728,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="35">
@@ -739,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="36">
@@ -750,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
@@ -772,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="39">
@@ -783,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="40">
@@ -805,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="42">
@@ -827,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="44">
@@ -915,7 +912,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="52">
@@ -926,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="53">
@@ -959,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="56">
@@ -981,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="58">
@@ -992,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="59">
@@ -1014,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="61">
@@ -1036,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="63">
@@ -1058,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="65">
@@ -1069,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="66">
@@ -1091,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="68">
@@ -1135,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="73">
@@ -1157,7 +1154,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="74">
@@ -1179,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="76">
@@ -1223,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="80">
@@ -1234,7 +1231,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="81">
@@ -1245,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="82">
@@ -1267,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="84">
@@ -1333,7 +1330,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="90">
@@ -1344,17 +1341,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>26.0</v>
       </c>
     </row>
@@ -1373,13 +1359,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1397,13 +1383,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>2025-10-15</t>
   </si>
   <si>
     <t>2025-10-16</t>
@@ -348,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -373,7 +370,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +381,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +392,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +403,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +414,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +425,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="8">
@@ -450,7 +447,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +458,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +469,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +480,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +491,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +502,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +513,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +524,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +535,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +546,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +557,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +568,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +579,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +590,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +601,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +612,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +623,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +634,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +645,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +656,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +667,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +678,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +689,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +700,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +711,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +722,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +733,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="36">
@@ -758,7 +755,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +766,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
@@ -791,7 +788,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="41">
@@ -813,7 +810,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="43">
@@ -901,7 +898,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="51">
@@ -912,7 +909,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="52">
@@ -945,7 +942,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="55">
@@ -967,7 +964,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="57">
@@ -978,7 +975,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="58">
@@ -1000,7 +997,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="60">
@@ -1022,7 +1019,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="62">
@@ -1044,7 +1041,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="64">
@@ -1055,7 +1052,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="65">
@@ -1077,7 +1074,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="67">
@@ -1121,7 +1118,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="71">
@@ -1132,7 +1129,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="72">
@@ -1143,7 +1140,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="73">
@@ -1165,7 +1162,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="75">
@@ -1209,7 +1206,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="79">
@@ -1220,7 +1217,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="80">
@@ -1231,7 +1228,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="81">
@@ -1253,7 +1250,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="83">
@@ -1319,7 +1316,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="89">
@@ -1330,17 +1327,6 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
         <v>26.0</v>
       </c>
     </row>
@@ -1359,13 +1345,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1383,13 +1369,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-16</t>
-  </si>
-  <si>
     <t>2025-10-17</t>
   </si>
   <si>
@@ -287,6 +284,12 @@
   </si>
   <si>
     <t>2026-01-11</t>
+  </si>
+  <si>
+    <t>2026-01-12</t>
+  </si>
+  <si>
+    <t>2026-01-13</t>
   </si>
   <si>
     <t>Issue</t>
@@ -345,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -370,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>50.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="3">
@@ -381,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="6">
@@ -414,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="7">
@@ -436,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="9">
@@ -447,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="10">
@@ -458,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="12">
@@ -480,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="13">
@@ -491,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="14">
@@ -502,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="15">
@@ -513,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="16">
@@ -524,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="17">
@@ -535,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="18">
@@ -546,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="19">
@@ -557,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="20">
@@ -568,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="21">
@@ -579,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="22">
@@ -590,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="23">
@@ -601,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="24">
@@ -612,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="25">
@@ -623,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="26">
@@ -634,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="27">
@@ -645,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="29">
@@ -667,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="31">
@@ -689,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="32">
@@ -700,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="33">
@@ -711,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="34">
@@ -722,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
@@ -744,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="37">
@@ -755,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -777,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="40">
@@ -799,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="42">
@@ -887,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="50">
@@ -898,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="51">
@@ -931,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="54">
@@ -953,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="56">
@@ -964,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="57">
@@ -986,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="59">
@@ -1008,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="61">
@@ -1030,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="63">
@@ -1041,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="64">
@@ -1063,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="66">
@@ -1107,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="70">
@@ -1118,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="71">
@@ -1129,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="72">
@@ -1151,7 +1154,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="74">
@@ -1195,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="78">
@@ -1206,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="79">
@@ -1217,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="80">
@@ -1239,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="82">
@@ -1305,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="88">
@@ -1327,6 +1330,17 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
         <v>26.0</v>
       </c>
     </row>
@@ -1345,13 +1359,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1369,13 +1383,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-17</t>
-  </si>
-  <si>
     <t>2025-10-18</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-13</t>
+  </si>
+  <si>
+    <t>2026-01-14</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="6">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="39">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="41">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="49">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="50">
@@ -923,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="53">
@@ -945,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="55">
@@ -956,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="56">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="58">
@@ -1000,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="60">
@@ -1022,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="62">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="63">
@@ -1055,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="65">
@@ -1099,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="69">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="70">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="71">
@@ -1143,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="73">
@@ -1187,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="77">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="78">
@@ -1209,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="79">
@@ -1231,7 +1231,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="81">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="87">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-18</t>
-  </si>
-  <si>
     <t>2025-10-19</t>
   </si>
   <si>
@@ -290,6 +287,12 @@
   </si>
   <si>
     <t>2026-01-14</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>2026-01-16</t>
   </si>
   <si>
     <t>Issue</t>
@@ -348,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -373,7 +376,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +387,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +398,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +420,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +431,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +442,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +453,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +464,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +475,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +486,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +497,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +508,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +519,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +530,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +541,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +552,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +563,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +574,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +585,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +596,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +607,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +618,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +629,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +640,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +651,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +662,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +673,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +684,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +695,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +706,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
@@ -725,7 +728,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +739,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="36">
@@ -758,7 +761,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="38">
@@ -780,7 +783,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="40">
@@ -868,7 +871,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="48">
@@ -879,7 +882,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="49">
@@ -912,7 +915,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="52">
@@ -934,7 +937,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="54">
@@ -945,7 +948,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="55">
@@ -967,7 +970,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="57">
@@ -989,7 +992,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="59">
@@ -1011,7 +1014,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="61">
@@ -1022,7 +1025,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="62">
@@ -1044,7 +1047,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="64">
@@ -1088,7 +1091,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="68">
@@ -1099,7 +1102,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="69">
@@ -1110,7 +1113,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1135,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="72">
@@ -1176,7 +1179,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="76">
@@ -1187,7 +1190,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="77">
@@ -1198,7 +1201,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="78">
@@ -1220,7 +1223,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="80">
@@ -1286,7 +1289,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="86">
@@ -1341,6 +1344,17 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
         <v>26.0</v>
       </c>
     </row>
@@ -1359,13 +1373,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1383,13 +1397,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
   </si>
   <si>
     <t>2025-10-20</t>
@@ -351,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -376,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>66.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="6">
@@ -420,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="7">
@@ -431,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="8">
@@ -442,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="10">
@@ -464,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="12">
@@ -486,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="13">
@@ -497,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="14">
@@ -508,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="15">
@@ -519,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="16">
@@ -530,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="17">
@@ -541,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="18">
@@ -552,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="19">
@@ -563,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="20">
@@ -574,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="21">
@@ -585,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="22">
@@ -596,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="23">
@@ -607,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="24">
@@ -618,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="27">
@@ -651,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="29">
@@ -673,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="30">
@@ -684,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="31">
@@ -695,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
@@ -717,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="34">
@@ -728,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
@@ -750,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="37">
@@ -772,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="39">
@@ -860,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="47">
@@ -871,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="48">
@@ -904,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="51">
@@ -926,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="53">
@@ -937,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="54">
@@ -959,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="56">
@@ -981,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="58">
@@ -1003,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="60">
@@ -1014,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="61">
@@ -1036,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="63">
@@ -1080,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="67">
@@ -1091,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="68">
@@ -1102,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="69">
@@ -1124,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="71">
@@ -1168,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="75">
@@ -1179,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="76">
@@ -1190,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="77">
@@ -1212,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="79">
@@ -1278,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="85">
@@ -1344,17 +1341,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>26.0</v>
       </c>
     </row>
@@ -1373,13 +1359,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1397,13 +1383,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
     <t>2025-10-21</t>
   </si>
   <si>
@@ -290,6 +287,12 @@
   </si>
   <si>
     <t>2026-01-16</t>
+  </si>
+  <si>
+    <t>2026-01-17</t>
+  </si>
+  <si>
+    <t>2026-01-18</t>
   </si>
   <si>
     <t>Issue</t>
@@ -348,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -373,7 +376,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="3">
@@ -395,7 +398,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +409,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +420,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +431,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +442,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +453,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +464,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +475,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +486,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +497,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +508,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +519,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +530,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +541,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +552,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +563,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +574,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +585,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +596,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +607,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +618,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +629,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +640,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +651,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +662,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +673,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +684,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -703,7 +706,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +717,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
@@ -736,7 +739,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="36">
@@ -758,7 +761,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="38">
@@ -846,7 +849,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="46">
@@ -857,7 +860,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="47">
@@ -890,7 +893,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="50">
@@ -912,7 +915,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="52">
@@ -923,7 +926,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="53">
@@ -945,7 +948,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="55">
@@ -967,7 +970,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="57">
@@ -989,7 +992,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="59">
@@ -1000,7 +1003,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="60">
@@ -1022,7 +1025,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1069,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="66">
@@ -1077,7 +1080,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1091,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="68">
@@ -1110,7 +1113,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="70">
@@ -1154,7 +1157,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="74">
@@ -1165,7 +1168,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="75">
@@ -1176,7 +1179,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="76">
@@ -1198,7 +1201,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="78">
@@ -1264,7 +1267,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="84">
@@ -1341,7 +1344,18 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>
@@ -1359,13 +1373,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1383,13 +1397,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-21</t>
-  </si>
-  <si>
     <t>2025-10-22</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>2026-01-18</t>
+  </si>
+  <si>
+    <t>2026-01-19</t>
   </si>
   <si>
     <t>Issue</t>
@@ -387,7 +387,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="4">
@@ -398,7 +398,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="5">
@@ -409,7 +409,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="6">
@@ -420,7 +420,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="7">
@@ -431,7 +431,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="8">
@@ -442,7 +442,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="10">
@@ -464,7 +464,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +475,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="12">
@@ -486,7 +486,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="13">
@@ -497,7 +497,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="14">
@@ -508,7 +508,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="15">
@@ -519,7 +519,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="16">
@@ -530,7 +530,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="17">
@@ -541,7 +541,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="18">
@@ -552,7 +552,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="19">
@@ -563,7 +563,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="20">
@@ -574,7 +574,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="21">
@@ -585,7 +585,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="22">
@@ -596,7 +596,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="23">
@@ -607,7 +607,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="24">
@@ -618,7 +618,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +629,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +640,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="27">
@@ -651,7 +651,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="29">
@@ -673,7 +673,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
@@ -695,7 +695,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="32">
@@ -706,7 +706,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
@@ -728,7 +728,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="35">
@@ -750,7 +750,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="37">
@@ -838,7 +838,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -849,7 +849,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="46">
@@ -882,7 +882,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="49">
@@ -904,7 +904,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="51">
@@ -915,7 +915,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="52">
@@ -937,7 +937,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="54">
@@ -959,7 +959,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="56">
@@ -981,7 +981,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="58">
@@ -992,7 +992,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="59">
@@ -1014,7 +1014,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="61">
@@ -1058,7 +1058,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="65">
@@ -1069,7 +1069,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="66">
@@ -1080,7 +1080,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="69">
@@ -1146,7 +1146,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="73">
@@ -1157,7 +1157,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="74">
@@ -1168,7 +1168,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="75">
@@ -1190,7 +1190,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="77">
@@ -1256,7 +1256,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="83">
@@ -1333,7 +1333,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="90">
@@ -1355,7 +1355,7 @@
         <v>0.0</v>
       </c>
       <c r="C91" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>2025-10-22</t>
   </si>
   <si>
     <t>2025-10-23</t>
@@ -351,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -376,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>81.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="4">
@@ -398,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="5">
@@ -409,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="6">
@@ -420,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="7">
@@ -431,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="8">
@@ -442,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="10">
@@ -464,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="12">
@@ -486,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="13">
@@ -497,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="14">
@@ -508,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="15">
@@ -519,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="16">
@@ -530,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="17">
@@ -541,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="18">
@@ -552,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="19">
@@ -563,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="20">
@@ -574,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="21">
@@ -585,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="22">
@@ -596,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="23">
@@ -607,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="24">
@@ -618,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="25">
@@ -629,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="27">
@@ -651,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
@@ -684,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="31">
@@ -695,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
@@ -717,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="34">
@@ -739,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="36">
@@ -827,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
@@ -838,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="45">
@@ -871,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="48">
@@ -893,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="50">
@@ -904,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="51">
@@ -926,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="53">
@@ -948,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="55">
@@ -970,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="57">
@@ -981,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="58">
@@ -1003,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="60">
@@ -1047,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="64">
@@ -1058,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="65">
@@ -1069,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="66">
@@ -1091,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="68">
@@ -1135,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="73">
@@ -1157,7 +1154,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="74">
@@ -1179,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="76">
@@ -1245,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="82">
@@ -1322,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="89">
@@ -1344,17 +1341,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>26.0</v>
       </c>
     </row>
@@ -1373,13 +1359,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1397,13 +1383,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-23</t>
-  </si>
-  <si>
     <t>2025-10-24</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-19</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>83.0</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="33">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="44">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="47">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="49">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="50">
@@ -912,7 +912,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="52">
@@ -934,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="54">
@@ -956,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="56">
@@ -967,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="57">
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="59">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="63">
@@ -1044,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="64">
@@ -1055,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="65">
@@ -1077,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="67">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="71">
@@ -1132,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="72">
@@ -1143,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="73">
@@ -1165,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="75">
@@ -1231,7 +1231,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="81">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="88">
@@ -1330,7 +1330,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="90">
@@ -1341,7 +1341,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-24</t>
-  </si>
-  <si>
     <t>2025-10-25</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-21</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>84.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="32">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="34">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="43">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="46">
@@ -868,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="48">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="49">
@@ -901,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="51">
@@ -923,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="53">
@@ -945,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="55">
@@ -956,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="56">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="58">
@@ -1022,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="62">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="63">
@@ -1044,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="64">
@@ -1066,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="66">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="70">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="71">
@@ -1132,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="72">
@@ -1154,7 +1154,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="74">
@@ -1220,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="80">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="87">
@@ -1319,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="89">
@@ -1330,7 +1330,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="90">
@@ -1341,7 +1341,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-25</t>
-  </si>
-  <si>
     <t>2025-10-26</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-21</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="31">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="33">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="41">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="42">
@@ -835,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="45">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="47">
@@ -868,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="48">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="50">
@@ -912,7 +912,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="52">
@@ -934,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="54">
@@ -945,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="55">
@@ -967,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="57">
@@ -1011,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="61">
@@ -1022,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="62">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="63">
@@ -1055,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="65">
@@ -1099,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="69">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="70">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="71">
@@ -1143,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="73">
@@ -1209,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="79">
@@ -1286,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="86">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="88">
@@ -1319,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="89">
@@ -1330,7 +1330,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="90">
@@ -1341,7 +1341,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-26</t>
-  </si>
-  <si>
     <t>2025-10-27</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>2026-01-23</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>90.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="30">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="32">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="40">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="41">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="44">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="46">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="47">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="49">
@@ -901,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="51">
@@ -923,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="53">
@@ -934,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="54">
@@ -956,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="56">
@@ -1000,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="60">
@@ -1011,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="61">
@@ -1022,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="62">
@@ -1044,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="64">
@@ -1088,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="68">
@@ -1099,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="69">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="72">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="78">
@@ -1275,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="85">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="87">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="88">
@@ -1319,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="89">
@@ -1330,7 +1330,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="90">
@@ -1341,7 +1341,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-27</t>
-  </si>
-  <si>
     <t>2025-10-28</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-23</t>
+  </si>
+  <si>
+    <t>2026-01-24</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>83.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="31">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="40">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
@@ -835,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="45">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="46">
@@ -868,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="48">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="50">
@@ -912,7 +912,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="52">
@@ -923,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="53">
@@ -945,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="55">
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="59">
@@ -1000,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="60">
@@ -1011,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="61">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="63">
@@ -1077,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="68">
@@ -1099,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="69">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="71">
@@ -1187,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="77">
@@ -1264,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="84">
@@ -1286,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="86">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="87">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="88">
@@ -1319,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="89">
@@ -1330,7 +1330,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="90">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-28</t>
-  </si>
-  <si>
     <t>2025-10-29</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-24</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="22">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="30">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="39">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="42">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="44">
@@ -835,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="45">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="47">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="49">
@@ -901,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="51">
@@ -912,7 +912,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="52">
@@ -934,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="54">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="58">
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="59">
@@ -1000,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="60">
@@ -1022,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="66">
@@ -1077,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="68">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="70">
@@ -1176,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="76">
@@ -1253,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="83">
@@ -1275,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="85">
@@ -1286,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="86">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="87">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="88">
@@ -1319,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="89">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-29</t>
-  </si>
-  <si>
     <t>2025-10-30</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>2026-01-26</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>93.0</v>
+        <v>92.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="27">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="29">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="38">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="41">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="43">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="44">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="46">
@@ -868,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="48">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="50">
@@ -901,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="51">
@@ -923,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="53">
@@ -967,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="57">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="58">
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="59">
@@ -1011,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="61">
@@ -1055,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="65">
@@ -1066,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="66">
@@ -1077,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="67">
@@ -1099,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="69">
@@ -1165,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="75">
@@ -1242,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="82">
@@ -1264,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="84">
@@ -1275,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="85">
@@ -1286,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="86">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="87">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="88">
@@ -1341,7 +1341,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>2025-10-30</t>
   </si>
   <si>
     <t>2025-10-31</t>
@@ -348,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -373,7 +370,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>92.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +381,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +392,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +403,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +414,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +425,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +436,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +447,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +458,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +469,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +480,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +491,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +502,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +513,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +524,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +535,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +546,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +557,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +568,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -593,7 +590,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +601,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +623,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +645,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="28">
@@ -736,7 +733,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +744,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="37">
@@ -780,7 +777,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="40">
@@ -802,7 +799,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="42">
@@ -813,7 +810,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="43">
@@ -835,7 +832,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="45">
@@ -857,7 +854,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="47">
@@ -879,7 +876,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="49">
@@ -890,7 +887,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="50">
@@ -912,7 +909,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="52">
@@ -956,7 +953,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="56">
@@ -967,7 +964,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="57">
@@ -978,7 +975,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="58">
@@ -1000,7 +997,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="60">
@@ -1044,7 +1041,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="64">
@@ -1055,7 +1052,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="65">
@@ -1066,7 +1063,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="66">
@@ -1088,7 +1085,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="68">
@@ -1154,7 +1151,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="74">
@@ -1231,7 +1228,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="81">
@@ -1253,7 +1250,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="83">
@@ -1264,7 +1261,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="84">
@@ -1275,7 +1272,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="85">
@@ -1286,7 +1283,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="86">
@@ -1297,7 +1294,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="87">
@@ -1330,17 +1327,6 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
         <v>25.0</v>
       </c>
     </row>
@@ -1359,13 +1345,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1383,13 +1369,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-10-31</t>
-  </si>
-  <si>
     <t>2025-11-01</t>
   </si>
   <si>
@@ -287,6 +284,12 @@
   </si>
   <si>
     <t>2026-01-26</t>
+  </si>
+  <si>
+    <t>2026-01-27</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
   </si>
   <si>
     <t>Issue</t>
@@ -345,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -370,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>101.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="3">
@@ -381,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="6">
@@ -414,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="7">
@@ -425,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="9">
@@ -447,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="10">
@@ -458,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="11">
@@ -469,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="12">
@@ -480,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="13">
@@ -491,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="14">
@@ -502,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="15">
@@ -513,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="16">
@@ -524,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="17">
@@ -535,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="18">
@@ -546,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="19">
@@ -557,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -579,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
@@ -590,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
@@ -612,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="27">
@@ -722,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
@@ -733,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="36">
@@ -766,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="39">
@@ -788,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="41">
@@ -799,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="42">
@@ -821,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="44">
@@ -843,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="46">
@@ -865,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="48">
@@ -876,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="49">
@@ -898,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="55">
@@ -953,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="56">
@@ -964,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="57">
@@ -986,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="59">
@@ -1030,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="63">
@@ -1041,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="64">
@@ -1052,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="65">
@@ -1074,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="67">
@@ -1140,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="73">
@@ -1217,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="80">
@@ -1239,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="82">
@@ -1250,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="83">
@@ -1261,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="85">
@@ -1283,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="86">
@@ -1316,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="89">
@@ -1327,7 +1330,18 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C90" t="n" s="0">
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>
@@ -1345,13 +1359,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1369,13 +1383,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-01</t>
-  </si>
-  <si>
     <t>2025-11-02</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>2026-01-29</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="26">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="35">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="38">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="40">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="41">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="43">
@@ -835,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="45">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="47">
@@ -868,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="48">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="50">
@@ -934,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="54">
@@ -945,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="55">
@@ -956,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="56">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="58">
@@ -1022,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="62">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="63">
@@ -1044,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="64">
@@ -1066,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="66">
@@ -1132,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="72">
@@ -1209,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="79">
@@ -1231,7 +1231,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="82">
@@ -1253,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="83">
@@ -1264,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="84">
@@ -1275,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="85">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="88">
@@ -1319,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="89">
@@ -1341,7 +1341,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-02</t>
-  </si>
-  <si>
     <t>2025-11-03</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-01-29</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>115.0</v>
+        <v>108.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="25">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="34">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="37">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="39">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="40">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="42">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="44">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="46">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="47">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="49">
@@ -923,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="53">
@@ -934,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="54">
@@ -945,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="55">
@@ -967,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="57">
@@ -1011,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="61">
@@ -1022,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="62">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="63">
@@ -1055,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="65">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="71">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="78">
@@ -1220,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="80">
@@ -1231,7 +1231,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="82">
@@ -1253,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="83">
@@ -1264,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="84">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="87">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="88">
@@ -1330,7 +1330,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="90">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-03</t>
-  </si>
-  <si>
     <t>2025-11-04</t>
   </si>
   <si>
@@ -290,6 +287,12 @@
   </si>
   <si>
     <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>2026-01-31</t>
+  </si>
+  <si>
+    <t>2026-02-01</t>
   </si>
   <si>
     <t>Issue</t>
@@ -348,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -373,7 +376,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>108.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +387,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +398,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +409,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +420,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +431,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +442,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +453,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +464,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +475,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +486,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +497,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +508,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +519,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +530,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -549,7 +552,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +563,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +585,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
@@ -604,7 +607,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="24">
@@ -692,7 +695,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +706,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="33">
@@ -736,7 +739,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="36">
@@ -758,7 +761,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +772,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="39">
@@ -791,7 +794,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="41">
@@ -813,7 +816,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="43">
@@ -835,7 +838,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="45">
@@ -846,7 +849,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="46">
@@ -868,7 +871,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +915,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="52">
@@ -923,7 +926,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="53">
@@ -934,7 +937,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="54">
@@ -956,7 +959,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="56">
@@ -1000,7 +1003,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="60">
@@ -1011,7 +1014,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="61">
@@ -1022,7 +1025,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="62">
@@ -1044,7 +1047,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="64">
@@ -1110,7 +1113,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="70">
@@ -1187,7 +1190,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="77">
@@ -1209,7 +1212,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="79">
@@ -1220,7 +1223,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="80">
@@ -1231,7 +1234,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1245,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="82">
@@ -1253,7 +1256,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="83">
@@ -1286,7 +1289,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="86">
@@ -1297,7 +1300,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="87">
@@ -1319,7 +1322,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="89">
@@ -1341,6 +1344,17 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
         <v>28.0</v>
       </c>
     </row>
@@ -1359,13 +1373,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1383,13 +1397,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>2025-11-04</t>
   </si>
   <si>
     <t>2025-11-05</t>
@@ -351,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -376,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>105.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="4">
@@ -398,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="5">
@@ -409,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="6">
@@ -420,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="7">
@@ -431,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="8">
@@ -442,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="10">
@@ -464,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="11">
@@ -475,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="12">
@@ -486,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="13">
@@ -497,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="14">
@@ -508,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="15">
@@ -519,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
@@ -541,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="18">
@@ -552,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
@@ -596,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="23">
@@ -684,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -695,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="32">
@@ -728,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="35">
@@ -750,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="37">
@@ -761,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="38">
@@ -783,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="40">
@@ -805,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="42">
@@ -827,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="44">
@@ -838,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="45">
@@ -860,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="47">
@@ -904,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="51">
@@ -915,7 +912,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="52">
@@ -926,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="53">
@@ -948,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="55">
@@ -992,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="59">
@@ -1003,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="60">
@@ -1014,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="61">
@@ -1036,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="63">
@@ -1102,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="69">
@@ -1179,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="76">
@@ -1201,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="79">
@@ -1223,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="80">
@@ -1234,7 +1231,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="81">
@@ -1245,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="82">
@@ -1278,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="85">
@@ -1289,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="86">
@@ -1311,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="88">
@@ -1344,17 +1341,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>28.0</v>
       </c>
     </row>
@@ -1373,13 +1359,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1397,13 +1383,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-05</t>
-  </si>
-  <si>
     <t>2025-11-06</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>101.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="22">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="31">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="37">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="39">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="41">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="43">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="44">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="46">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="50">
@@ -901,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="51">
@@ -912,7 +912,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="52">
@@ -934,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="54">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="58">
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="59">
@@ -1000,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="60">
@@ -1022,7 +1022,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="62">
@@ -1088,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="68">
@@ -1165,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="75">
@@ -1187,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="77">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="78">
@@ -1209,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="79">
@@ -1220,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="80">
@@ -1231,7 +1231,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="81">
@@ -1264,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="84">
@@ -1275,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="85">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="87">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-06</t>
-  </si>
-  <si>
     <t>2025-11-07</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-03</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>95.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="14">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="21">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="30">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="36">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="38">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="40">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="43">
@@ -835,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="45">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="49">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="50">
@@ -901,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="51">
@@ -923,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="53">
@@ -967,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="57">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="58">
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="59">
@@ -1011,7 +1011,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="61">
@@ -1077,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="67">
@@ -1154,7 +1154,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="74">
@@ -1176,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="76">
@@ -1187,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="77">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="78">
@@ -1209,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="79">
@@ -1220,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="80">
@@ -1253,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="83">
@@ -1264,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="84">
@@ -1286,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="86">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-07</t>
-  </si>
-  <si>
     <t>2025-11-08</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-02-03</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>87.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>82.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="18">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="20">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="32">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="35">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="37">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="39">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="41">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="42">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="44">
@@ -868,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="48">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="49">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="50">
@@ -912,7 +912,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="52">
@@ -956,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="56">
@@ -967,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="57">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="58">
@@ -1000,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="60">
@@ -1066,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="66">
@@ -1143,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="73">
@@ -1165,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="75">
@@ -1176,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="76">
@@ -1187,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="77">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="78">
@@ -1209,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="79">
@@ -1242,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="82">
@@ -1253,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="83">
@@ -1275,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="85">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,12 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-08</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
     <t>2025-11-10</t>
   </si>
   <si>
@@ -290,6 +284,12 @@
   </si>
   <si>
     <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>82.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>76.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>54.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>47.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +516,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
@@ -538,7 +538,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="18">
@@ -549,7 +549,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="19">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="36">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="37">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="39">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="41">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="43">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="46">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="47">
@@ -868,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="48">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="49">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="50">
@@ -901,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="51">
@@ -934,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="54">
@@ -945,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="55">
@@ -956,7 +956,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="56">
@@ -967,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="57">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="58">
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="59">
@@ -1044,7 +1044,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="64">
@@ -1055,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="65">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="71">
@@ -1132,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="72">
@@ -1143,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="73">
@@ -1165,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="75">
@@ -1176,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="76">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="78">
@@ -1220,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="80">
@@ -1231,7 +1231,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="82">
@@ -1253,7 +1253,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="83">
@@ -1264,7 +1264,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="84">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-10</t>
-  </si>
-  <si>
     <t>2025-11-11</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
@@ -505,7 +505,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
@@ -527,7 +527,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="17">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="32">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="34">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="36">
@@ -758,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +769,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="39">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="41">
@@ -835,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="45">
@@ -846,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="46">
@@ -857,7 +857,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="47">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="49">
@@ -923,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="53">
@@ -934,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="54">
@@ -945,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="55">
@@ -967,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="57">
@@ -1033,7 +1033,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="63">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="72">
@@ -1143,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="74">
@@ -1165,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="75">
@@ -1176,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="76">
@@ -1209,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="79">
@@ -1220,7 +1220,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="80">
@@ -1242,7 +1242,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="82">
@@ -1341,7 +1341,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-11</t>
-  </si>
-  <si>
-    <t>2025-11-12</t>
-  </si>
-  <si>
     <t>2025-11-13</t>
   </si>
   <si>
@@ -290,6 +284,15 @@
   </si>
   <si>
     <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
   </si>
   <si>
     <t>Issue</t>
@@ -348,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -373,7 +376,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>47.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +387,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +398,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +409,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +420,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>35.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +431,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +442,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
@@ -450,7 +453,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
@@ -472,7 +475,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="12">
@@ -483,7 +486,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="13">
@@ -494,7 +497,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
@@ -505,7 +508,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="15">
@@ -516,7 +519,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="16">
@@ -593,7 +596,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +607,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="24">
@@ -615,7 +618,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="25">
@@ -637,7 +640,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +651,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
@@ -659,7 +662,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +673,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +684,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="31">
@@ -692,7 +695,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +706,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +717,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +728,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="35">
@@ -736,7 +739,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="36">
@@ -758,7 +761,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="38">
@@ -769,7 +772,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="39">
@@ -780,7 +783,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="40">
@@ -813,7 +816,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="43">
@@ -824,7 +827,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="44">
@@ -835,7 +838,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="45">
@@ -846,7 +849,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="46">
@@ -857,7 +860,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="47">
@@ -868,7 +871,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="48">
@@ -901,7 +904,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="51">
@@ -912,7 +915,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="52">
@@ -923,7 +926,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="53">
@@ -934,7 +937,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="54">
@@ -945,7 +948,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="55">
@@ -956,7 +959,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="56">
@@ -1011,7 +1014,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="61">
@@ -1022,7 +1025,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="62">
@@ -1088,7 +1091,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="68">
@@ -1099,7 +1102,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="69">
@@ -1110,7 +1113,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1135,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="72">
@@ -1143,7 +1146,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="73">
@@ -1165,7 +1168,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="75">
@@ -1187,7 +1190,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="77">
@@ -1198,7 +1201,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="78">
@@ -1209,7 +1212,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="79">
@@ -1220,7 +1223,7 @@
         <v>0.0</v>
       </c>
       <c r="C79" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="80">
@@ -1231,7 +1234,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="81">
@@ -1319,7 +1322,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="89">
@@ -1341,7 +1344,18 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C91" t="n" s="0">
+        <v>29.0</v>
       </c>
     </row>
   </sheetData>
@@ -1359,13 +1373,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1383,13 +1397,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>2025-11-13</t>
   </si>
   <si>
     <t>2025-11-14</t>
@@ -351,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -376,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>41.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="3">
@@ -387,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="4">
@@ -398,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="5">
@@ -409,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="6">
@@ -420,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
@@ -442,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="10">
@@ -475,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="12">
@@ -497,7 +494,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="14">
@@ -585,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
@@ -596,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="23">
@@ -629,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="26">
@@ -651,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="29">
@@ -684,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="31">
@@ -706,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="33">
@@ -728,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="35">
@@ -739,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="36">
@@ -761,7 +758,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="38">
@@ -805,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="42">
@@ -816,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="43">
@@ -827,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="44">
@@ -849,7 +846,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="46">
@@ -893,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="50">
@@ -904,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="51">
@@ -915,7 +912,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="52">
@@ -937,7 +934,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="54">
@@ -1003,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="60">
@@ -1080,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="69">
@@ -1113,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="70">
@@ -1124,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="71">
@@ -1135,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1143,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="73">
@@ -1179,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="76">
@@ -1190,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="77">
@@ -1212,7 +1209,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="79">
@@ -1311,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="88">
@@ -1322,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="89">
@@ -1344,17 +1341,6 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C91" t="n" s="0">
         <v>29.0</v>
       </c>
     </row>
@@ -1373,13 +1359,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1397,13 +1383,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-14</t>
-  </si>
-  <si>
     <t>2025-11-15</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
@@ -439,7 +439,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="9">
@@ -461,7 +461,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="11">
@@ -483,7 +483,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="13">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -582,7 +582,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="22">
@@ -615,7 +615,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="25">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +670,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="30">
@@ -692,7 +692,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="32">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="34">
@@ -725,7 +725,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="35">
@@ -747,7 +747,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="37">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="41">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="42">
@@ -813,7 +813,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="43">
@@ -835,7 +835,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="45">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="49">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="50">
@@ -901,7 +901,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="51">
@@ -923,7 +923,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="53">
@@ -989,7 +989,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="59">
@@ -1066,7 +1066,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="66">
@@ -1088,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="68">
@@ -1099,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="69">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="70">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="71">
@@ -1132,7 +1132,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="72">
@@ -1165,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="75">
@@ -1176,7 +1176,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="76">
@@ -1198,7 +1198,7 @@
         <v>0.0</v>
       </c>
       <c r="C77" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="78">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="87">
@@ -1308,7 +1308,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="88">
@@ -1330,7 +1330,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="90">
@@ -1341,7 +1341,7 @@
         <v>0.0</v>
       </c>
       <c r="C90" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-15</t>
-  </si>
-  <si>
     <t>2025-11-16</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
   </si>
   <si>
     <t>Issue</t>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="4">
@@ -395,7 +395,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
@@ -428,7 +428,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
@@ -450,7 +450,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
@@ -472,7 +472,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="12">
@@ -560,7 +560,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="26">
@@ -637,7 +637,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="27">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="29">
@@ -681,7 +681,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="31">
@@ -703,7 +703,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +714,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="34">
@@ -736,7 +736,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="36">
@@ -780,7 +780,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="40">
@@ -791,7 +791,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="41">
@@ -802,7 +802,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
@@ -824,7 +824,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="44">
@@ -868,7 +868,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="48">
@@ -879,7 +879,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="49">
@@ -890,7 +890,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="50">
@@ -912,7 +912,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="52">
@@ -978,7 +978,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="58">
@@ -1055,7 +1055,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="65">
@@ -1077,7 +1077,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1088,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="68">
@@ -1099,7 +1099,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="69">
@@ -1110,7 +1110,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="70">
@@ -1121,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="71">
@@ -1154,7 +1154,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="74">
@@ -1165,7 +1165,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="75">
@@ -1187,7 +1187,7 @@
         <v>0.0</v>
       </c>
       <c r="C76" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="77">
@@ -1286,7 +1286,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="86">
@@ -1297,7 +1297,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="87">
@@ -1319,7 +1319,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="89">
@@ -1330,7 +1330,7 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="90">

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>2025-11-16</t>
   </si>
   <si>
     <t>2025-11-17</t>
@@ -348,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -373,7 +370,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>31.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +381,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
@@ -406,7 +403,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
@@ -417,7 +414,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="7">
@@ -439,7 +436,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
@@ -461,7 +458,7 @@
         <v>0.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="11">
@@ -549,7 +546,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
@@ -560,7 +557,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="20">
@@ -593,7 +590,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="23">
@@ -615,7 +612,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="25">
@@ -626,7 +623,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +645,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="28">
@@ -670,7 +667,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="30">
@@ -692,7 +689,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="32">
@@ -703,7 +700,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="33">
@@ -725,7 +722,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="35">
@@ -769,7 +766,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="39">
@@ -780,7 +777,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="40">
@@ -791,7 +788,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="41">
@@ -813,7 +810,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="43">
@@ -857,7 +854,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="47">
@@ -868,7 +865,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="48">
@@ -879,7 +876,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="49">
@@ -901,7 +898,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="51">
@@ -967,7 +964,7 @@
         <v>0.0</v>
       </c>
       <c r="C56" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="57">
@@ -1044,7 +1041,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="64">
@@ -1066,7 +1063,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="66">
@@ -1077,7 +1074,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="67">
@@ -1088,7 +1085,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="68">
@@ -1099,7 +1096,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="69">
@@ -1110,7 +1107,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="70">
@@ -1143,7 +1140,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1151,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="74">
@@ -1176,7 +1173,7 @@
         <v>0.0</v>
       </c>
       <c r="C75" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="76">
@@ -1275,7 +1272,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="85">
@@ -1286,7 +1283,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="86">
@@ -1308,7 +1305,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="88">
@@ -1319,7 +1316,7 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="89">
@@ -1330,17 +1327,6 @@
         <v>0.0</v>
       </c>
       <c r="C89" t="n" s="0">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="B90" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C90" t="n" s="0">
         <v>30.0</v>
       </c>
     </row>
@@ -1359,13 +1345,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1383,13 +1369,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>2025-11-17</t>
   </si>
   <si>
     <t>2025-11-18</t>
@@ -345,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -370,7 +367,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>29.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
@@ -392,7 +389,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
@@ -403,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="8">
@@ -447,7 +444,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="10">
@@ -535,7 +532,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
@@ -546,7 +543,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="22">
@@ -601,7 +598,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="24">
@@ -612,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +653,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="29">
@@ -678,7 +675,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="31">
@@ -689,7 +686,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="32">
@@ -711,7 +708,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="34">
@@ -755,7 +752,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="38">
@@ -766,7 +763,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="39">
@@ -777,7 +774,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="40">
@@ -799,7 +796,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="42">
@@ -843,7 +840,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="46">
@@ -854,7 +851,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="47">
@@ -865,7 +862,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="48">
@@ -887,7 +884,7 @@
         <v>0.0</v>
       </c>
       <c r="C49" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="50">
@@ -953,7 +950,7 @@
         <v>0.0</v>
       </c>
       <c r="C55" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="56">
@@ -1030,7 +1027,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="63">
@@ -1052,7 +1049,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="65">
@@ -1063,7 +1060,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="66">
@@ -1074,7 +1071,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="67">
@@ -1085,7 +1082,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="68">
@@ -1096,7 +1093,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="69">
@@ -1129,7 +1126,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="72">
@@ -1140,7 +1137,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1159,7 @@
         <v>0.0</v>
       </c>
       <c r="C74" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1258,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1269,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="85">
@@ -1294,7 +1291,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="87">
@@ -1305,7 +1302,7 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="88">
@@ -1316,17 +1313,6 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
         <v>30.0</v>
       </c>
     </row>
@@ -1345,13 +1331,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1369,13 +1355,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-18</t>
-  </si>
-  <si>
     <t>2025-11-19</t>
   </si>
   <si>
@@ -284,6 +281,12 @@
   </si>
   <si>
     <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
   </si>
   <si>
     <t>Issue</t>
@@ -342,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -378,7 +381,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
@@ -389,7 +392,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +414,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +436,7 @@
         <v>0.0</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="9">
@@ -521,7 +524,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -532,7 +535,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="18">
@@ -565,7 +568,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="21">
@@ -587,7 +590,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="23">
@@ -598,7 +601,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +623,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +645,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +667,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="30">
@@ -675,7 +678,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="31">
@@ -697,7 +700,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="33">
@@ -741,7 +744,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="37">
@@ -752,7 +755,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="38">
@@ -763,7 +766,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="39">
@@ -785,7 +788,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="41">
@@ -829,7 +832,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="45">
@@ -840,7 +843,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="46">
@@ -851,7 +854,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="47">
@@ -873,7 +876,7 @@
         <v>0.0</v>
       </c>
       <c r="C48" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="49">
@@ -939,7 +942,7 @@
         <v>0.0</v>
       </c>
       <c r="C54" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="55">
@@ -1016,7 +1019,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="62">
@@ -1038,7 +1041,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="64">
@@ -1049,7 +1052,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="65">
@@ -1060,7 +1063,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="66">
@@ -1071,7 +1074,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="67">
@@ -1082,7 +1085,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="68">
@@ -1115,7 +1118,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="71">
@@ -1126,7 +1129,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="72">
@@ -1148,7 +1151,7 @@
         <v>0.0</v>
       </c>
       <c r="C73" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="74">
@@ -1247,7 +1250,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="83">
@@ -1258,7 +1261,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="84">
@@ -1280,7 +1283,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="86">
@@ -1291,7 +1294,7 @@
         <v>0.0</v>
       </c>
       <c r="C86" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="87">
@@ -1314,6 +1317,17 @@
       </c>
       <c r="C88" t="n" s="0">
         <v>30.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>31.0</v>
       </c>
     </row>
   </sheetData>
@@ -1331,13 +1345,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1355,13 +1369,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>2025-11-19</t>
   </si>
   <si>
     <t>2025-11-20</t>
@@ -345,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -370,7 +367,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="3">
@@ -381,7 +378,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
@@ -403,7 +400,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +422,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="8">
@@ -513,7 +510,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="16">
@@ -524,7 +521,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="17">
@@ -557,7 +554,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
@@ -579,7 +576,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="22">
@@ -590,7 +587,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="23">
@@ -612,7 +609,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +631,7 @@
         <v>0.0</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +653,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="29">
@@ -667,7 +664,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="30">
@@ -689,7 +686,7 @@
         <v>0.0</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="32">
@@ -733,7 +730,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="36">
@@ -744,7 +741,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="37">
@@ -755,7 +752,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="38">
@@ -777,7 +774,7 @@
         <v>0.0</v>
       </c>
       <c r="C39" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="40">
@@ -821,7 +818,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="44">
@@ -832,7 +829,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="45">
@@ -843,7 +840,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="46">
@@ -865,7 +862,7 @@
         <v>0.0</v>
       </c>
       <c r="C47" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="48">
@@ -931,7 +928,7 @@
         <v>0.0</v>
       </c>
       <c r="C53" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="54">
@@ -1008,7 +1005,7 @@
         <v>0.0</v>
       </c>
       <c r="C60" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="61">
@@ -1030,7 +1027,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="63">
@@ -1041,7 +1038,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="64">
@@ -1052,7 +1049,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="65">
@@ -1063,7 +1060,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="66">
@@ -1074,7 +1071,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="67">
@@ -1107,7 +1104,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="70">
@@ -1118,7 +1115,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="71">
@@ -1140,7 +1137,7 @@
         <v>0.0</v>
       </c>
       <c r="C72" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1236,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="82">
@@ -1250,7 +1247,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="83">
@@ -1272,7 +1269,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="85">
@@ -1283,7 +1280,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="86">
@@ -1316,17 +1313,6 @@
         <v>0.0</v>
       </c>
       <c r="C88" t="n" s="0">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C89" t="n" s="0">
         <v>31.0</v>
       </c>
     </row>
@@ -1345,13 +1331,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1369,13 +1355,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>92</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>2025-11-20</t>
   </si>
   <si>
     <t>2025-11-21</t>
@@ -342,7 +339,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -367,7 +364,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3">
@@ -389,7 +386,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="5">
@@ -411,7 +408,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="7">
@@ -499,7 +496,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="15">
@@ -510,7 +507,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="16">
@@ -543,7 +540,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="19">
@@ -565,7 +562,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="21">
@@ -576,7 +573,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +595,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="24">
@@ -620,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="28">
@@ -653,7 +650,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="29">
@@ -675,7 +672,7 @@
         <v>0.0</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="31">
@@ -719,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="35">
@@ -730,7 +727,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="36">
@@ -741,7 +738,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="37">
@@ -763,7 +760,7 @@
         <v>0.0</v>
       </c>
       <c r="C38" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="39">
@@ -807,7 +804,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="43">
@@ -818,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="44">
@@ -829,7 +826,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="45">
@@ -851,7 +848,7 @@
         <v>0.0</v>
       </c>
       <c r="C46" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="47">
@@ -917,7 +914,7 @@
         <v>0.0</v>
       </c>
       <c r="C52" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="53">
@@ -994,7 +991,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="60">
@@ -1016,7 +1013,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="62">
@@ -1027,7 +1024,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="63">
@@ -1038,7 +1035,7 @@
         <v>0.0</v>
       </c>
       <c r="C63" t="n" s="0">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="64">
@@ -1049,7 +1046,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="65">
@@ -1060,7 +1057,7 @@
         <v>0.0</v>
       </c>
       <c r="C65" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="66">
@@ -1093,7 +1090,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="69">
@@ -1104,7 +1101,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="70">
@@ -1126,7 +1123,7 @@
         <v>0.0</v>
       </c>
       <c r="C71" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="72">
@@ -1225,7 +1222,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="81">
@@ -1236,7 +1233,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="82">
@@ -1258,7 +1255,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="84">
@@ -1269,7 +1266,7 @@
         <v>0.0</v>
       </c>
       <c r="C84" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="85">
@@ -1302,17 +1299,6 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="B88" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C88" t="n" s="0">
         <v>31.0</v>
       </c>
     </row>
@@ -1331,13 +1317,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1355,13 +1341,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/gsc-export/Breadcrumbs.xlsx
+++ b/gsc-export/Breadcrumbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>2025-11-21</t>
-  </si>
-  <si>
-    <t>2025-11-22</t>
-  </si>
-  <si>
     <t>2025-11-23</t>
   </si>
   <si>
@@ -281,6 +275,18 @@
   </si>
   <si>
     <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>2026-02-15</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>2026-02-17</t>
+  </si>
+  <si>
+    <t>2026-02-18</t>
   </si>
   <si>
     <t>Issue</t>
@@ -339,7 +345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" rightToLeft="false"/>
   </sheetViews>
@@ -364,7 +370,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="3">
@@ -375,7 +381,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="4">
@@ -386,7 +392,7 @@
         <v>0.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="5">
@@ -397,7 +403,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="6">
@@ -474,7 +480,7 @@
         <v>0.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="13">
@@ -485,7 +491,7 @@
         <v>0.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +502,7 @@
         <v>0.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15">
@@ -518,7 +524,7 @@
         <v>0.0</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -529,7 +535,7 @@
         <v>0.0</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="18">
@@ -540,7 +546,7 @@
         <v>0.0</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="19">
@@ -551,7 +557,7 @@
         <v>0.0</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="20">
@@ -562,7 +568,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="21">
@@ -573,7 +579,7 @@
         <v>0.0</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="22">
@@ -584,7 +590,7 @@
         <v>0.0</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="23">
@@ -595,7 +601,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="24">
@@ -606,7 +612,7 @@
         <v>0.0</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="25">
@@ -617,7 +623,7 @@
         <v>0.0</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="26">
@@ -639,7 +645,7 @@
         <v>0.0</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="28">
@@ -650,7 +656,7 @@
         <v>0.0</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="29">
@@ -661,7 +667,7 @@
         <v>0.0</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +700,7 @@
         <v>0.0</v>
       </c>
       <c r="C32" t="n" s="0">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="33">
@@ -705,7 +711,7 @@
         <v>0.0</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="34">
@@ -716,7 +722,7 @@
         <v>0.0</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="35">
@@ -727,7 +733,7 @@
         <v>0.0</v>
       </c>
       <c r="C35" t="n" s="0">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="36">
@@ -738,7 +744,7 @@
         <v>0.0</v>
       </c>
       <c r="C36" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="37">
@@ -749,7 +755,7 @@
         <v>0.0</v>
       </c>
       <c r="C37" t="n" s="0">
-        <v>32.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +788,7 @@
         <v>0.0</v>
       </c>
       <c r="C40" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="41">
@@ -793,7 +799,7 @@
         <v>0.0</v>
       </c>
       <c r="C41" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="42">
@@ -804,7 +810,7 @@
         <v>0.0</v>
       </c>
       <c r="C42" t="n" s="0">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="43">
@@ -815,7 +821,7 @@
         <v>0.0</v>
       </c>
       <c r="C43" t="n" s="0">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="44">
@@ -826,7 +832,7 @@
         <v>0.0</v>
       </c>
       <c r="C44" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="45">
@@ -837,7 +843,7 @@
         <v>0.0</v>
       </c>
       <c r="C45" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +898,7 @@
         <v>0.0</v>
       </c>
       <c r="C50" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="51">
@@ -903,7 +909,7 @@
         <v>0.0</v>
       </c>
       <c r="C51" t="n" s="0">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="52">
@@ -969,7 +975,7 @@
         <v>0.0</v>
       </c>
       <c r="C57" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="58">
@@ -980,7 +986,7 @@
         <v>0.0</v>
       </c>
       <c r="C58" t="n" s="0">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="59">
@@ -991,7 +997,7 @@
         <v>0.0</v>
       </c>
       <c r="C59" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="60">
@@ -1013,7 +1019,7 @@
         <v>0.0</v>
       </c>
       <c r="C61" t="n" s="0">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="62">
@@ -1024,7 +1030,7 @@
         <v>0.0</v>
       </c>
       <c r="C62" t="n" s="0">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="63">
@@ -1046,7 +1052,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" t="n" s="0">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="65">
@@ -1068,7 +1074,7 @@
         <v>0.0</v>
       </c>
       <c r="C66" t="n" s="0">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="67">
@@ -1079,7 +1085,7 @@
         <v>0.0</v>
       </c>
       <c r="C67" t="n" s="0">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="68">
@@ -1090,7 +1096,7 @@
         <v>0.0</v>
       </c>
       <c r="C68" t="n" s="0">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="69">
@@ -1101,7 +1107,7 @@
         <v>0.0</v>
       </c>
       <c r="C69" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="70">
@@ -1112,7 +1118,7 @@
         <v>0.0</v>
       </c>
       <c r="C70" t="n" s="0">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="71">
@@ -1200,7 +1206,7 @@
         <v>0.0</v>
       </c>
       <c r="C78" t="n" s="0">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1228,7 @@
         <v>0.0</v>
       </c>
       <c r="C80" t="n" s="0">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="81">
@@ -1233,7 +1239,7 @@
         <v>0.0</v>
       </c>
       <c r="C81" t="n" s="0">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="82">
@@ -1244,7 +1250,7 @@
         <v>0.0</v>
       </c>
       <c r="C82" t="n" s="0">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="83">
@@ -1255,7 +1261,7 @@
         <v>0.0</v>
       </c>
       <c r="C83" t="n" s="0">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="84">
@@ -1277,7 +1283,7 @@
         <v>0.0</v>
       </c>
       <c r="C85" t="n" s="0">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="86">
@@ -1299,7 +1305,29 @@
         <v>0.0</v>
       </c>
       <c r="C87" t="n" s="0">
-        <v>31.0</v>
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B88" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C88" t="n" s="0">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C89" t="n" s="0">
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>
@@ -1317,13 +1345,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1341,13 +1369,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
